--- a/283-préparation-de-la-release-110/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/283-préparation-de-la-release-110/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-18T15:27:52+00:00</t>
+    <t>2025-02-24T13:23:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
